--- a/final.xlsx
+++ b/final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoriapuck-karam/Documents/DS340W Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19F4BB1C-50B5-0B47-94F6-57A1EE689C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{86BDBFE8-64D8-4B46-8F99-7ED8078B2241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16240"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="45">
   <si>
     <t>Country</t>
   </si>
@@ -94,13 +94,7 @@
     <t>EST</t>
   </si>
   <si>
-    <t>04/31/2018</t>
-  </si>
-  <si>
     <t>DNK</t>
-  </si>
-  <si>
-    <t>4/31/2023</t>
   </si>
   <si>
     <t>ESP</t>
@@ -1005,7 +999,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A506" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B267" sqref="B267"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1224,8 +1220,8 @@
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
+      <c r="B6" s="1">
+        <v>43220</v>
       </c>
       <c r="C6">
         <v>0.82155830600000002</v>
@@ -1994,7 +1990,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1">
         <v>43131</v>
@@ -2002,7 +1998,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
         <v>43220</v>
@@ -2043,7 +2039,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1">
         <v>43312</v>
@@ -2084,7 +2080,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1">
         <v>43404</v>
@@ -2125,7 +2121,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1">
         <v>43496</v>
@@ -2166,7 +2162,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" s="1">
         <v>43585</v>
@@ -2207,7 +2203,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" s="1">
         <v>43677</v>
@@ -2248,7 +2244,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="1">
         <v>43769</v>
@@ -2289,7 +2285,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" s="1">
         <v>43861</v>
@@ -2330,7 +2326,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="1">
         <v>43951</v>
@@ -2371,7 +2367,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="1">
         <v>44043</v>
@@ -2412,7 +2408,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="1">
         <v>44135</v>
@@ -2453,7 +2449,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" s="1">
         <v>44227</v>
@@ -2494,7 +2490,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" s="1">
         <v>44316</v>
@@ -2535,7 +2531,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" s="1">
         <v>44408</v>
@@ -2576,7 +2572,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44" s="1">
         <v>44500</v>
@@ -2617,7 +2613,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45" s="1">
         <v>44592</v>
@@ -2658,7 +2654,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" s="1">
         <v>44681</v>
@@ -2699,7 +2695,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47" s="1">
         <v>44773</v>
@@ -2740,7 +2736,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48" s="1">
         <v>44865</v>
@@ -2781,7 +2777,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B49" s="1">
         <v>44957</v>
@@ -2807,10 +2803,10 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45046</v>
       </c>
       <c r="C50">
         <v>0.31577281699999998</v>
@@ -2833,7 +2829,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B51" s="1">
         <v>45138</v>
@@ -2841,7 +2837,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" s="1">
         <v>45230</v>
@@ -2849,7 +2845,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B53" s="1">
         <v>43131</v>
@@ -2857,7 +2853,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B54" s="1">
         <v>43220</v>
@@ -2898,7 +2894,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B55" s="1">
         <v>43312</v>
@@ -2939,7 +2935,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B56" s="1">
         <v>43404</v>
@@ -2980,7 +2976,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B57" s="1">
         <v>43496</v>
@@ -3021,7 +3017,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B58" s="1">
         <v>43585</v>
@@ -3062,7 +3058,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B59" s="1">
         <v>43677</v>
@@ -3103,7 +3099,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B60" s="1">
         <v>43769</v>
@@ -3144,7 +3140,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B61" s="1">
         <v>43861</v>
@@ -3185,7 +3181,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B62" s="1">
         <v>43951</v>
@@ -3226,7 +3222,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B63" s="1">
         <v>44043</v>
@@ -3267,7 +3263,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B64" s="1">
         <v>44135</v>
@@ -3308,7 +3304,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B65" s="1">
         <v>44227</v>
@@ -3349,7 +3345,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B66" s="1">
         <v>44316</v>
@@ -3390,7 +3386,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B67" s="1">
         <v>44408</v>
@@ -3431,7 +3427,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B68" s="1">
         <v>44500</v>
@@ -3472,7 +3468,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B69" s="1">
         <v>44592</v>
@@ -3510,7 +3506,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B70" s="1">
         <v>44681</v>
@@ -3548,7 +3544,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B71" s="1">
         <v>44773</v>
@@ -3586,7 +3582,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B72" s="1">
         <v>44865</v>
@@ -3624,7 +3620,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B73" s="1">
         <v>44957</v>
@@ -3650,7 +3646,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B74" s="1">
         <v>45046</v>
@@ -3676,7 +3672,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B75" s="1">
         <v>45138</v>
@@ -3684,7 +3680,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B76" s="1">
         <v>45230</v>
@@ -3692,7 +3688,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B77" s="1">
         <v>43131</v>
@@ -3700,7 +3696,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B78" s="1">
         <v>43220</v>
@@ -3738,7 +3734,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B79" s="1">
         <v>43312</v>
@@ -3779,7 +3775,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B80" s="1">
         <v>43404</v>
@@ -3820,7 +3816,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B81" s="1">
         <v>43496</v>
@@ -3861,7 +3857,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B82" s="1">
         <v>43585</v>
@@ -3902,7 +3898,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B83" s="1">
         <v>43677</v>
@@ -3943,7 +3939,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B84" s="1">
         <v>43769</v>
@@ -3984,7 +3980,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B85" s="1">
         <v>43861</v>
@@ -4025,7 +4021,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B86" s="1">
         <v>43951</v>
@@ -4066,7 +4062,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B87" s="1">
         <v>44043</v>
@@ -4107,7 +4103,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B88" s="1">
         <v>44135</v>
@@ -4148,7 +4144,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B89" s="1">
         <v>44227</v>
@@ -4189,7 +4185,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B90" s="1">
         <v>44316</v>
@@ -4230,7 +4226,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B91" s="1">
         <v>44408</v>
@@ -4271,7 +4267,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B92" s="1">
         <v>44500</v>
@@ -4312,7 +4308,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B93" s="1">
         <v>44592</v>
@@ -4350,7 +4346,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B94" s="1">
         <v>44681</v>
@@ -4388,7 +4384,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B95" s="1">
         <v>44773</v>
@@ -4426,7 +4422,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B96" s="1">
         <v>44865</v>
@@ -4464,7 +4460,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B97" s="1">
         <v>44957</v>
@@ -4490,7 +4486,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B98" s="1">
         <v>45046</v>
@@ -4516,7 +4512,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B99" s="1">
         <v>45138</v>
@@ -4524,7 +4520,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B100" s="1">
         <v>45230</v>
@@ -4532,7 +4528,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B101" s="1">
         <v>43131</v>
@@ -4540,7 +4536,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B102" s="1">
         <v>43220</v>
@@ -4578,7 +4574,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B103" s="1">
         <v>43312</v>
@@ -4616,7 +4612,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B104" s="1">
         <v>43404</v>
@@ -4654,7 +4650,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B105" s="1">
         <v>43496</v>
@@ -4692,7 +4688,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B106" s="1">
         <v>43585</v>
@@ -4730,7 +4726,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B107" s="1">
         <v>43677</v>
@@ -4768,7 +4764,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B108" s="1">
         <v>43769</v>
@@ -4806,7 +4802,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B109" s="1">
         <v>43861</v>
@@ -4844,7 +4840,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B110" s="1">
         <v>43951</v>
@@ -4882,7 +4878,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B111" s="1">
         <v>44043</v>
@@ -4920,7 +4916,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B112" s="1">
         <v>44135</v>
@@ -4958,7 +4954,7 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B113" s="1">
         <v>44227</v>
@@ -4996,7 +4992,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B114" s="1">
         <v>44316</v>
@@ -5034,7 +5030,7 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B115" s="1">
         <v>44408</v>
@@ -5072,7 +5068,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B116" s="1">
         <v>44500</v>
@@ -5110,7 +5106,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B117" s="1">
         <v>44592</v>
@@ -5145,7 +5141,7 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B118" s="1">
         <v>44681</v>
@@ -5180,7 +5176,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B119" s="1">
         <v>44773</v>
@@ -5215,7 +5211,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B120" s="1">
         <v>44865</v>
@@ -5250,7 +5246,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B121" s="1">
         <v>44957</v>
@@ -5273,7 +5269,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B122" s="1">
         <v>45046</v>
@@ -5296,7 +5292,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B123" s="1">
         <v>45138</v>
@@ -5304,7 +5300,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B124" s="1">
         <v>45230</v>
@@ -5312,7 +5308,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B125" s="1">
         <v>43131</v>
@@ -5320,7 +5316,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B126" s="1">
         <v>43220</v>
@@ -5361,7 +5357,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B127" s="1">
         <v>43312</v>
@@ -5402,7 +5398,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B128" s="1">
         <v>43404</v>
@@ -5443,7 +5439,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B129" s="1">
         <v>43496</v>
@@ -5484,7 +5480,7 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B130" s="1">
         <v>43585</v>
@@ -5525,7 +5521,7 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B131" s="1">
         <v>43677</v>
@@ -5566,7 +5562,7 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B132" s="1">
         <v>43769</v>
@@ -5607,7 +5603,7 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B133" s="1">
         <v>43861</v>
@@ -5648,7 +5644,7 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B134" s="1">
         <v>43951</v>
@@ -5689,7 +5685,7 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B135" s="1">
         <v>44043</v>
@@ -5730,7 +5726,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B136" s="1">
         <v>44135</v>
@@ -5771,7 +5767,7 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B137" s="1">
         <v>44227</v>
@@ -5812,7 +5808,7 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B138" s="1">
         <v>44316</v>
@@ -5853,7 +5849,7 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B139" s="1">
         <v>44408</v>
@@ -5894,7 +5890,7 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B140" s="1">
         <v>44500</v>
@@ -5935,7 +5931,7 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B141" s="1">
         <v>44592</v>
@@ -5973,7 +5969,7 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B142" s="1">
         <v>44681</v>
@@ -6011,7 +6007,7 @@
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B143" s="1">
         <v>44773</v>
@@ -6049,7 +6045,7 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B144" s="1">
         <v>44865</v>
@@ -6087,7 +6083,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B145" s="1">
         <v>44957</v>
@@ -6113,7 +6109,7 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B146" s="1">
         <v>45046</v>
@@ -6139,7 +6135,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B147" s="1">
         <v>45138</v>
@@ -6147,7 +6143,7 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B148" s="1">
         <v>45230</v>
@@ -6155,7 +6151,7 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B149" s="1">
         <v>43131</v>
@@ -6163,7 +6159,7 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B150" s="1">
         <v>43220</v>
@@ -6204,7 +6200,7 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B151" s="1">
         <v>43312</v>
@@ -6245,7 +6241,7 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B152" s="1">
         <v>43404</v>
@@ -6286,7 +6282,7 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B153" s="1">
         <v>43496</v>
@@ -6327,7 +6323,7 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B154" s="1">
         <v>43585</v>
@@ -6368,7 +6364,7 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B155" s="1">
         <v>43677</v>
@@ -6409,7 +6405,7 @@
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B156" s="1">
         <v>43769</v>
@@ -6450,7 +6446,7 @@
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B157" s="1">
         <v>43861</v>
@@ -6491,7 +6487,7 @@
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B158" s="1">
         <v>43951</v>
@@ -6532,7 +6528,7 @@
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B159" s="1">
         <v>44043</v>
@@ -6573,7 +6569,7 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B160" s="1">
         <v>44135</v>
@@ -6614,7 +6610,7 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B161" s="1">
         <v>44227</v>
@@ -6655,7 +6651,7 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B162" s="1">
         <v>44316</v>
@@ -6696,7 +6692,7 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B163" s="1">
         <v>44408</v>
@@ -6737,7 +6733,7 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B164" s="1">
         <v>44500</v>
@@ -6778,7 +6774,7 @@
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B165" s="1">
         <v>44592</v>
@@ -6819,7 +6815,7 @@
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B166" s="1">
         <v>44681</v>
@@ -6860,7 +6856,7 @@
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B167" s="1">
         <v>44773</v>
@@ -6901,7 +6897,7 @@
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B168" s="1">
         <v>44865</v>
@@ -6942,7 +6938,7 @@
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B169" s="1">
         <v>44957</v>
@@ -6968,7 +6964,7 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B170" s="1">
         <v>45046</v>
@@ -6994,7 +6990,7 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B171" s="1">
         <v>45138</v>
@@ -7002,7 +6998,7 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B172" s="1">
         <v>45230</v>
@@ -7010,7 +7006,7 @@
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B173" s="1">
         <v>43131</v>
@@ -7018,7 +7014,7 @@
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B174" s="1">
         <v>43220</v>
@@ -7059,7 +7055,7 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B175" s="1">
         <v>43312</v>
@@ -7100,7 +7096,7 @@
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B176" s="1">
         <v>43404</v>
@@ -7141,7 +7137,7 @@
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B177" s="1">
         <v>43496</v>
@@ -7182,7 +7178,7 @@
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B178" s="1">
         <v>43585</v>
@@ -7223,7 +7219,7 @@
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B179" s="1">
         <v>43677</v>
@@ -7264,7 +7260,7 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B180" s="1">
         <v>43769</v>
@@ -7305,7 +7301,7 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B181" s="1">
         <v>43861</v>
@@ -7346,7 +7342,7 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B182" s="1">
         <v>43951</v>
@@ -7387,7 +7383,7 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B183" s="1">
         <v>44043</v>
@@ -7428,7 +7424,7 @@
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B184" s="1">
         <v>44135</v>
@@ -7469,7 +7465,7 @@
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B185" s="1">
         <v>44227</v>
@@ -7510,7 +7506,7 @@
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B186" s="1">
         <v>44316</v>
@@ -7551,7 +7547,7 @@
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B187" s="1">
         <v>44408</v>
@@ -7592,7 +7588,7 @@
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B188" s="1">
         <v>44500</v>
@@ -7633,7 +7629,7 @@
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B189" s="1">
         <v>44592</v>
@@ -7674,7 +7670,7 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B190" s="1">
         <v>44681</v>
@@ -7715,7 +7711,7 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B191" s="1">
         <v>44773</v>
@@ -7756,7 +7752,7 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B192" s="1">
         <v>44865</v>
@@ -7797,7 +7793,7 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B193" s="1">
         <v>44957</v>
@@ -7823,7 +7819,7 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B194" s="1">
         <v>45046</v>
@@ -7849,7 +7845,7 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B195" s="1">
         <v>45138</v>
@@ -7857,7 +7853,7 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B196" s="1">
         <v>45230</v>
@@ -7865,7 +7861,7 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B197" s="1">
         <v>43131</v>
@@ -7873,7 +7869,7 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B198" s="1">
         <v>43220</v>
@@ -7914,7 +7910,7 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B199" s="1">
         <v>43312</v>
@@ -7955,7 +7951,7 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B200" s="1">
         <v>43404</v>
@@ -7996,7 +7992,7 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B201" s="1">
         <v>43496</v>
@@ -8037,7 +8033,7 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B202" s="1">
         <v>43585</v>
@@ -8078,7 +8074,7 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B203" s="1">
         <v>43677</v>
@@ -8119,7 +8115,7 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B204" s="1">
         <v>43769</v>
@@ -8160,7 +8156,7 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B205" s="1">
         <v>43861</v>
@@ -8201,7 +8197,7 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B206" s="1">
         <v>43951</v>
@@ -8242,7 +8238,7 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B207" s="1">
         <v>44043</v>
@@ -8283,7 +8279,7 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B208" s="1">
         <v>44135</v>
@@ -8324,7 +8320,7 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B209" s="1">
         <v>44227</v>
@@ -8365,7 +8361,7 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B210" s="1">
         <v>44316</v>
@@ -8406,7 +8402,7 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B211" s="1">
         <v>44408</v>
@@ -8447,7 +8443,7 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B212" s="1">
         <v>44500</v>
@@ -8488,7 +8484,7 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B213" s="1">
         <v>44592</v>
@@ -8520,7 +8516,7 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B214" s="1">
         <v>44681</v>
@@ -8552,7 +8548,7 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B215" s="1">
         <v>44773</v>
@@ -8584,7 +8580,7 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B216" s="1">
         <v>44865</v>
@@ -8616,7 +8612,7 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B217" s="1">
         <v>44957</v>
@@ -8642,7 +8638,7 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B218" s="1">
         <v>45046</v>
@@ -8668,7 +8664,7 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B219" s="1">
         <v>45138</v>
@@ -8676,7 +8672,7 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B220" s="1">
         <v>45230</v>
@@ -8684,7 +8680,7 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B221" s="1">
         <v>43131</v>
@@ -8692,7 +8688,7 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B222" s="1">
         <v>43220</v>
@@ -8730,7 +8726,7 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B223" s="1">
         <v>43312</v>
@@ -8768,7 +8764,7 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B224" s="1">
         <v>43404</v>
@@ -8806,7 +8802,7 @@
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B225" s="1">
         <v>43496</v>
@@ -8844,7 +8840,7 @@
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B226" s="1">
         <v>43585</v>
@@ -8882,7 +8878,7 @@
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B227" s="1">
         <v>43677</v>
@@ -8920,7 +8916,7 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B228" s="1">
         <v>43769</v>
@@ -8958,7 +8954,7 @@
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B229" s="1">
         <v>43861</v>
@@ -8996,7 +8992,7 @@
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B230" s="1">
         <v>43951</v>
@@ -9034,7 +9030,7 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B231" s="1">
         <v>44043</v>
@@ -9072,7 +9068,7 @@
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B232" s="1">
         <v>44135</v>
@@ -9110,7 +9106,7 @@
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B233" s="1">
         <v>44227</v>
@@ -9148,7 +9144,7 @@
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B234" s="1">
         <v>44316</v>
@@ -9186,7 +9182,7 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B235" s="1">
         <v>44408</v>
@@ -9224,7 +9220,7 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B236" s="1">
         <v>44500</v>
@@ -9262,7 +9258,7 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B237" s="1">
         <v>44592</v>
@@ -9300,7 +9296,7 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B238" s="1">
         <v>44681</v>
@@ -9338,7 +9334,7 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B239" s="1">
         <v>44773</v>
@@ -9376,7 +9372,7 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B240" s="1">
         <v>44865</v>
@@ -9414,7 +9410,7 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B241" s="1">
         <v>44957</v>
@@ -9437,7 +9433,7 @@
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B242" s="1">
         <v>45046</v>
@@ -9460,7 +9456,7 @@
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B243" s="1">
         <v>45138</v>
@@ -9468,7 +9464,7 @@
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B244" s="1">
         <v>45230</v>
@@ -9476,7 +9472,7 @@
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B245" s="1">
         <v>43131</v>
@@ -9484,7 +9480,7 @@
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B246" s="1">
         <v>43220</v>
@@ -9525,7 +9521,7 @@
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B247" s="1">
         <v>43312</v>
@@ -9566,7 +9562,7 @@
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B248" s="1">
         <v>43404</v>
@@ -9607,7 +9603,7 @@
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B249" s="1">
         <v>43496</v>
@@ -9648,7 +9644,7 @@
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B250" s="1">
         <v>43585</v>
@@ -9689,7 +9685,7 @@
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B251" s="1">
         <v>43677</v>
@@ -9730,7 +9726,7 @@
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B252" s="1">
         <v>43769</v>
@@ -9771,7 +9767,7 @@
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B253" s="1">
         <v>43861</v>
@@ -9812,7 +9808,7 @@
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B254" s="1">
         <v>43951</v>
@@ -9853,7 +9849,7 @@
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B255" s="1">
         <v>44043</v>
@@ -9894,7 +9890,7 @@
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B256" s="1">
         <v>44135</v>
@@ -9935,7 +9931,7 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B257" s="1">
         <v>44227</v>
@@ -9976,7 +9972,7 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B258" s="1">
         <v>44316</v>
@@ -10017,7 +10013,7 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B259" s="1">
         <v>44408</v>
@@ -10058,7 +10054,7 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B260" s="1">
         <v>44500</v>
@@ -10099,7 +10095,7 @@
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B261" s="1">
         <v>44592</v>
@@ -10140,7 +10136,7 @@
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B262" s="1">
         <v>44681</v>
@@ -10181,7 +10177,7 @@
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B263" s="1">
         <v>44773</v>
@@ -10222,7 +10218,7 @@
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B264" s="1">
         <v>44865</v>
@@ -10263,7 +10259,7 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B265" s="1">
         <v>44957</v>
@@ -10289,10 +10285,10 @@
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>35</v>
-      </c>
-      <c r="B266" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="B266" s="1">
+        <v>45046</v>
       </c>
       <c r="C266">
         <v>0.15508791199999999</v>
@@ -10315,7 +10311,7 @@
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B267" s="1">
         <v>45138</v>
@@ -10323,7 +10319,7 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B268" s="1">
         <v>45230</v>
@@ -10331,7 +10327,7 @@
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B269" s="1">
         <v>43131</v>
@@ -10339,7 +10335,7 @@
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B270" s="1">
         <v>43220</v>
@@ -10377,7 +10373,7 @@
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B271" s="1">
         <v>43312</v>
@@ -10415,7 +10411,7 @@
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B272" s="1">
         <v>43404</v>
@@ -10453,7 +10449,7 @@
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B273" s="1">
         <v>43496</v>
@@ -10491,7 +10487,7 @@
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B274" s="1">
         <v>43585</v>
@@ -10529,7 +10525,7 @@
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B275" s="1">
         <v>43677</v>
@@ -10567,7 +10563,7 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B276" s="1">
         <v>43769</v>
@@ -10605,7 +10601,7 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B277" s="1">
         <v>43861</v>
@@ -10643,7 +10639,7 @@
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B278" s="1">
         <v>43951</v>
@@ -10681,7 +10677,7 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B279" s="1">
         <v>44043</v>
@@ -10719,7 +10715,7 @@
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B280" s="1">
         <v>44135</v>
@@ -10757,7 +10753,7 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B281" s="1">
         <v>44227</v>
@@ -10795,7 +10791,7 @@
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B282" s="1">
         <v>44316</v>
@@ -10833,7 +10829,7 @@
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B283" s="1">
         <v>44408</v>
@@ -10871,7 +10867,7 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B284" s="1">
         <v>44500</v>
@@ -10909,7 +10905,7 @@
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B285" s="1">
         <v>44592</v>
@@ -10944,7 +10940,7 @@
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B286" s="1">
         <v>44681</v>
@@ -10979,7 +10975,7 @@
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B287" s="1">
         <v>44773</v>
@@ -11014,7 +11010,7 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B288" s="1">
         <v>44865</v>
@@ -11049,7 +11045,7 @@
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B289" s="1">
         <v>44957</v>
@@ -11072,7 +11068,7 @@
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B290" s="1">
         <v>45046</v>
@@ -11095,7 +11091,7 @@
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B291" s="1">
         <v>45138</v>
@@ -11103,7 +11099,7 @@
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B292" s="1">
         <v>45230</v>
@@ -11111,7 +11107,7 @@
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B293" s="1">
         <v>43131</v>
@@ -11119,7 +11115,7 @@
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B294" s="1">
         <v>43220</v>
@@ -11154,7 +11150,7 @@
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B295" s="1">
         <v>43312</v>
@@ -11189,7 +11185,7 @@
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B296" s="1">
         <v>43404</v>
@@ -11224,7 +11220,7 @@
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B297" s="1">
         <v>43496</v>
@@ -11259,7 +11255,7 @@
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B298" s="1">
         <v>43585</v>
@@ -11294,7 +11290,7 @@
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B299" s="1">
         <v>43677</v>
@@ -11329,7 +11325,7 @@
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B300" s="1">
         <v>43769</v>
@@ -11364,7 +11360,7 @@
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B301" s="1">
         <v>43861</v>
@@ -11399,7 +11395,7 @@
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B302" s="1">
         <v>43951</v>
@@ -11434,7 +11430,7 @@
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B303" s="1">
         <v>44043</v>
@@ -11469,7 +11465,7 @@
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B304" s="1">
         <v>44135</v>
@@ -11504,7 +11500,7 @@
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B305" s="1">
         <v>44227</v>
@@ -11539,7 +11535,7 @@
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B306" s="1">
         <v>44316</v>
@@ -11574,7 +11570,7 @@
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B307" s="1">
         <v>44408</v>
@@ -11609,7 +11605,7 @@
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B308" s="1">
         <v>44500</v>
@@ -11644,7 +11640,7 @@
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B309" s="1">
         <v>44592</v>
@@ -11679,7 +11675,7 @@
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B310" s="1">
         <v>44681</v>
@@ -11714,7 +11710,7 @@
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B311" s="1">
         <v>44773</v>
@@ -11749,7 +11745,7 @@
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B312" s="1">
         <v>44865</v>
@@ -11784,7 +11780,7 @@
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B313" s="1">
         <v>44957</v>
@@ -11804,7 +11800,7 @@
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B314" s="1">
         <v>45046</v>
@@ -11821,7 +11817,7 @@
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B315" s="1">
         <v>45138</v>
@@ -11829,7 +11825,7 @@
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B316" s="1">
         <v>45230</v>
@@ -11837,7 +11833,7 @@
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B317" s="1">
         <v>43131</v>
@@ -11845,7 +11841,7 @@
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B318" s="1">
         <v>43220</v>
@@ -11886,7 +11882,7 @@
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B319" s="1">
         <v>43312</v>
@@ -11927,7 +11923,7 @@
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B320" s="1">
         <v>43404</v>
@@ -11968,7 +11964,7 @@
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B321" s="1">
         <v>43496</v>
@@ -12009,7 +12005,7 @@
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B322" s="1">
         <v>43585</v>
@@ -12050,7 +12046,7 @@
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B323" s="1">
         <v>43677</v>
@@ -12091,7 +12087,7 @@
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B324" s="1">
         <v>43769</v>
@@ -12132,7 +12128,7 @@
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B325" s="1">
         <v>43861</v>
@@ -12173,7 +12169,7 @@
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B326" s="1">
         <v>43951</v>
@@ -12214,7 +12210,7 @@
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B327" s="1">
         <v>44043</v>
@@ -12255,7 +12251,7 @@
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B328" s="1">
         <v>44135</v>
@@ -12296,7 +12292,7 @@
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B329" s="1">
         <v>44227</v>
@@ -12337,7 +12333,7 @@
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B330" s="1">
         <v>44316</v>
@@ -12378,7 +12374,7 @@
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B331" s="1">
         <v>44408</v>
@@ -12419,7 +12415,7 @@
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B332" s="1">
         <v>44500</v>
@@ -12460,7 +12456,7 @@
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B333" s="1">
         <v>44592</v>
@@ -12498,7 +12494,7 @@
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B334" s="1">
         <v>44681</v>
@@ -12536,7 +12532,7 @@
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B335" s="1">
         <v>44773</v>
@@ -12574,7 +12570,7 @@
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B336" s="1">
         <v>44865</v>
@@ -12612,7 +12608,7 @@
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B337" s="1">
         <v>44957</v>
@@ -12638,7 +12634,7 @@
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B338" s="1">
         <v>45046</v>
@@ -12664,7 +12660,7 @@
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B339" s="1">
         <v>45138</v>
@@ -12672,7 +12668,7 @@
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B340" s="1">
         <v>45230</v>
@@ -12680,7 +12676,7 @@
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B341" s="1">
         <v>43131</v>
@@ -12688,7 +12684,7 @@
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B342" s="1">
         <v>43220</v>
@@ -12729,7 +12725,7 @@
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B343" s="1">
         <v>43312</v>
@@ -12770,7 +12766,7 @@
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B344" s="1">
         <v>43404</v>
@@ -12811,7 +12807,7 @@
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B345" s="1">
         <v>43496</v>
@@ -12852,7 +12848,7 @@
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B346" s="1">
         <v>43585</v>
@@ -12893,7 +12889,7 @@
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B347" s="1">
         <v>43677</v>
@@ -12934,7 +12930,7 @@
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B348" s="1">
         <v>43769</v>
@@ -12975,7 +12971,7 @@
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B349" s="1">
         <v>43861</v>
@@ -13016,7 +13012,7 @@
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B350" s="1">
         <v>43951</v>
@@ -13057,7 +13053,7 @@
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B351" s="1">
         <v>44043</v>
@@ -13098,7 +13094,7 @@
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B352" s="1">
         <v>44135</v>
@@ -13139,7 +13135,7 @@
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B353" s="1">
         <v>44227</v>
@@ -13180,7 +13176,7 @@
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B354" s="1">
         <v>44316</v>
@@ -13221,7 +13217,7 @@
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B355" s="1">
         <v>44408</v>
@@ -13262,7 +13258,7 @@
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B356" s="1">
         <v>44500</v>
@@ -13303,7 +13299,7 @@
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B357" s="1">
         <v>44592</v>
@@ -13344,7 +13340,7 @@
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B358" s="1">
         <v>44681</v>
@@ -13385,7 +13381,7 @@
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B359" s="1">
         <v>44773</v>
@@ -13426,7 +13422,7 @@
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B360" s="1">
         <v>44865</v>
@@ -13467,7 +13463,7 @@
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B361" s="1">
         <v>44957</v>
@@ -13493,7 +13489,7 @@
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B362" s="1">
         <v>45046</v>
@@ -13519,7 +13515,7 @@
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B363" s="1">
         <v>45138</v>
@@ -13527,7 +13523,7 @@
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B364" s="1">
         <v>45230</v>
@@ -13535,7 +13531,7 @@
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B365" s="1">
         <v>43131</v>
@@ -13543,7 +13539,7 @@
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B366" s="1">
         <v>43220</v>
@@ -13584,7 +13580,7 @@
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B367" s="1">
         <v>43312</v>
@@ -13625,7 +13621,7 @@
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B368" s="1">
         <v>43404</v>
@@ -13666,7 +13662,7 @@
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B369" s="1">
         <v>43496</v>
@@ -13707,7 +13703,7 @@
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B370" s="1">
         <v>43585</v>
@@ -13748,7 +13744,7 @@
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B371" s="1">
         <v>43677</v>
@@ -13789,7 +13785,7 @@
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B372" s="1">
         <v>43769</v>
@@ -13830,7 +13826,7 @@
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B373" s="1">
         <v>43861</v>
@@ -13871,7 +13867,7 @@
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B374" s="1">
         <v>43951</v>
@@ -13912,7 +13908,7 @@
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B375" s="1">
         <v>44043</v>
@@ -13953,7 +13949,7 @@
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B376" s="1">
         <v>44135</v>
@@ -13994,7 +13990,7 @@
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B377" s="1">
         <v>44227</v>
@@ -14035,7 +14031,7 @@
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B378" s="1">
         <v>44316</v>
@@ -14076,7 +14072,7 @@
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B379" s="1">
         <v>44408</v>
@@ -14117,7 +14113,7 @@
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B380" s="1">
         <v>44500</v>
@@ -14158,7 +14154,7 @@
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B381" s="1">
         <v>44592</v>
@@ -14199,7 +14195,7 @@
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B382" s="1">
         <v>44681</v>
@@ -14240,7 +14236,7 @@
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B383" s="1">
         <v>44773</v>
@@ -14281,7 +14277,7 @@
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B384" s="1">
         <v>44865</v>
@@ -14322,7 +14318,7 @@
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B385" s="1">
         <v>44957</v>
@@ -14348,7 +14344,7 @@
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B386" s="1">
         <v>45046</v>
@@ -14374,7 +14370,7 @@
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B387" s="1">
         <v>45137</v>
@@ -14382,7 +14378,7 @@
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B388" s="1">
         <v>45229</v>
@@ -14390,7 +14386,7 @@
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B389" s="1">
         <v>43131</v>
@@ -14398,7 +14394,7 @@
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B390" s="1">
         <v>43220</v>
@@ -14436,7 +14432,7 @@
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B391" s="1">
         <v>43312</v>
@@ -14474,7 +14470,7 @@
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B392" s="1">
         <v>43404</v>
@@ -14512,7 +14508,7 @@
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B393" s="1">
         <v>43496</v>
@@ -14550,7 +14546,7 @@
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B394" s="1">
         <v>43585</v>
@@ -14588,7 +14584,7 @@
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B395" s="1">
         <v>43677</v>
@@ -14626,7 +14622,7 @@
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B396" s="1">
         <v>43769</v>
@@ -14664,7 +14660,7 @@
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B397" s="1">
         <v>43861</v>
@@ -14702,7 +14698,7 @@
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B398" s="1">
         <v>43951</v>
@@ -14740,7 +14736,7 @@
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B399" s="1">
         <v>44043</v>
@@ -14778,7 +14774,7 @@
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B400" s="1">
         <v>44135</v>
@@ -14816,7 +14812,7 @@
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B401" s="1">
         <v>44227</v>
@@ -14854,7 +14850,7 @@
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B402" s="1">
         <v>44316</v>
@@ -14892,7 +14888,7 @@
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B403" s="1">
         <v>44408</v>
@@ -14930,7 +14926,7 @@
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B404" s="1">
         <v>44500</v>
@@ -14968,7 +14964,7 @@
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B405" s="1">
         <v>44592</v>
@@ -15006,7 +15002,7 @@
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B406" s="1">
         <v>44681</v>
@@ -15044,7 +15040,7 @@
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B407" s="1">
         <v>44773</v>
@@ -15082,7 +15078,7 @@
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B408" s="1">
         <v>44865</v>
@@ -15120,7 +15116,7 @@
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B409" s="1">
         <v>44957</v>
@@ -15146,7 +15142,7 @@
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B410" s="1">
         <v>45046</v>
@@ -15172,7 +15168,7 @@
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B411" s="1">
         <v>45138</v>
@@ -15180,7 +15176,7 @@
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B412" s="1">
         <v>45230</v>
@@ -15188,7 +15184,7 @@
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B413" s="1">
         <v>43131</v>
@@ -15196,7 +15192,7 @@
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B414" s="1">
         <v>43220</v>
@@ -15237,7 +15233,7 @@
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B415" s="1">
         <v>43312</v>
@@ -15278,7 +15274,7 @@
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B416" s="1">
         <v>43404</v>
@@ -15319,7 +15315,7 @@
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B417" s="1">
         <v>43496</v>
@@ -15360,7 +15356,7 @@
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B418" s="1">
         <v>43585</v>
@@ -15401,7 +15397,7 @@
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B419" s="1">
         <v>43677</v>
@@ -15442,7 +15438,7 @@
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B420" s="1">
         <v>43769</v>
@@ -15483,7 +15479,7 @@
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B421" s="1">
         <v>43861</v>
@@ -15524,7 +15520,7 @@
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B422" s="1">
         <v>43951</v>
@@ -15565,7 +15561,7 @@
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B423" s="1">
         <v>44043</v>
@@ -15606,7 +15602,7 @@
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B424" s="1">
         <v>44135</v>
@@ -15647,7 +15643,7 @@
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B425" s="1">
         <v>44227</v>
@@ -15688,7 +15684,7 @@
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B426" s="1">
         <v>44316</v>
@@ -15729,7 +15725,7 @@
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B427" s="1">
         <v>44408</v>
@@ -15770,7 +15766,7 @@
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B428" s="1">
         <v>44500</v>
@@ -15811,7 +15807,7 @@
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B429" s="1">
         <v>44592</v>
@@ -15849,7 +15845,7 @@
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B430" s="1">
         <v>44681</v>
@@ -15887,7 +15883,7 @@
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B431" s="1">
         <v>44773</v>
@@ -15925,7 +15921,7 @@
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B432" s="1">
         <v>44865</v>
@@ -15963,7 +15959,7 @@
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B433" s="1">
         <v>44957</v>
@@ -15989,7 +15985,7 @@
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B434" s="1">
         <v>45046</v>
@@ -16015,7 +16011,7 @@
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B435" s="1">
         <v>45138</v>
@@ -16023,7 +16019,7 @@
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B436" s="1">
         <v>45230</v>
@@ -16031,7 +16027,7 @@
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B437" s="1">
         <v>43131</v>
@@ -16039,7 +16035,7 @@
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B438" s="1">
         <v>43220</v>
@@ -16080,7 +16076,7 @@
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B439" s="1">
         <v>43312</v>
@@ -16121,7 +16117,7 @@
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B440" s="1">
         <v>43404</v>
@@ -16162,7 +16158,7 @@
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B441" s="1">
         <v>43496</v>
@@ -16203,7 +16199,7 @@
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B442" s="1">
         <v>43585</v>
@@ -16244,7 +16240,7 @@
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B443" s="1">
         <v>43677</v>
@@ -16285,7 +16281,7 @@
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B444" s="1">
         <v>43769</v>
@@ -16326,7 +16322,7 @@
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B445" s="1">
         <v>43861</v>
@@ -16367,7 +16363,7 @@
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B446" s="1">
         <v>43951</v>
@@ -16408,7 +16404,7 @@
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B447" s="1">
         <v>44043</v>
@@ -16449,7 +16445,7 @@
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B448" s="1">
         <v>44135</v>
@@ -16490,7 +16486,7 @@
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B449" s="1">
         <v>44227</v>
@@ -16531,7 +16527,7 @@
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B450" s="1">
         <v>44316</v>
@@ -16572,7 +16568,7 @@
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B451" s="1">
         <v>44408</v>
@@ -16613,7 +16609,7 @@
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B452" s="1">
         <v>44500</v>
@@ -16654,7 +16650,7 @@
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B453" s="1">
         <v>44592</v>
@@ -16692,7 +16688,7 @@
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B454" s="1">
         <v>44681</v>
@@ -16730,7 +16726,7 @@
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B455" s="1">
         <v>44773</v>
@@ -16768,7 +16764,7 @@
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B456" s="1">
         <v>44865</v>
@@ -16806,7 +16802,7 @@
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B457" s="1">
         <v>44957</v>
@@ -16832,7 +16828,7 @@
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B458" s="1">
         <v>45046</v>
@@ -16858,7 +16854,7 @@
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B459" s="1">
         <v>45138</v>
@@ -16866,7 +16862,7 @@
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B460" s="1">
         <v>45230</v>
@@ -16874,7 +16870,7 @@
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B461" s="1">
         <v>43131</v>
@@ -16882,7 +16878,7 @@
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B462" s="1">
         <v>43220</v>
@@ -16923,7 +16919,7 @@
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B463" s="1">
         <v>43312</v>
@@ -16964,7 +16960,7 @@
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B464" s="1">
         <v>43404</v>
@@ -17005,7 +17001,7 @@
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B465" s="1">
         <v>43496</v>
@@ -17046,7 +17042,7 @@
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B466" s="1">
         <v>43585</v>
@@ -17087,7 +17083,7 @@
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B467" s="1">
         <v>43677</v>
@@ -17128,7 +17124,7 @@
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B468" s="1">
         <v>43769</v>
@@ -17169,7 +17165,7 @@
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B469" s="1">
         <v>43861</v>
@@ -17210,7 +17206,7 @@
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B470" s="1">
         <v>43951</v>
@@ -17251,7 +17247,7 @@
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B471" s="1">
         <v>44043</v>
@@ -17292,7 +17288,7 @@
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B472" s="1">
         <v>44135</v>
@@ -17333,7 +17329,7 @@
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B473" s="1">
         <v>44227</v>
@@ -17374,7 +17370,7 @@
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B474" s="1">
         <v>44316</v>
@@ -17415,7 +17411,7 @@
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B475" s="1">
         <v>44408</v>
@@ -17456,7 +17452,7 @@
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B476" s="1">
         <v>44500</v>
@@ -17497,7 +17493,7 @@
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B477" s="1">
         <v>44592</v>
@@ -17538,7 +17534,7 @@
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B478" s="1">
         <v>44681</v>
@@ -17579,7 +17575,7 @@
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B479" s="1">
         <v>44773</v>
@@ -17620,7 +17616,7 @@
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B480" s="1">
         <v>44865</v>
@@ -17661,7 +17657,7 @@
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B481" s="1">
         <v>44957</v>
@@ -17687,7 +17683,7 @@
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B482" s="1">
         <v>45046</v>
@@ -17713,7 +17709,7 @@
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B483" s="1">
         <v>43220</v>
@@ -17754,7 +17750,7 @@
     </row>
     <row r="484" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B484" s="1">
         <v>43312</v>
@@ -17795,7 +17791,7 @@
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B485" s="1">
         <v>43404</v>
@@ -17836,7 +17832,7 @@
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B486" s="1">
         <v>43496</v>
@@ -17877,7 +17873,7 @@
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B487" s="1">
         <v>43585</v>
@@ -17918,7 +17914,7 @@
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B488" s="1">
         <v>43677</v>
@@ -17959,7 +17955,7 @@
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B489" s="1">
         <v>43769</v>
@@ -18000,7 +17996,7 @@
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B490" s="1">
         <v>43861</v>
@@ -18041,7 +18037,7 @@
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B491" s="1">
         <v>43951</v>
@@ -18082,7 +18078,7 @@
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B492" s="1">
         <v>44043</v>
@@ -18123,7 +18119,7 @@
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B493" s="1">
         <v>44135</v>
@@ -18164,7 +18160,7 @@
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B494" s="1">
         <v>44227</v>
@@ -18205,7 +18201,7 @@
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B495" s="1">
         <v>44316</v>
@@ -18246,7 +18242,7 @@
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B496" s="1">
         <v>44408</v>
@@ -18287,7 +18283,7 @@
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B497" s="1">
         <v>44500</v>
@@ -18328,7 +18324,7 @@
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B498" s="1">
         <v>44592</v>
@@ -18366,7 +18362,7 @@
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B499" s="1">
         <v>44681</v>
@@ -18404,7 +18400,7 @@
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B500" s="1">
         <v>44773</v>
@@ -18442,7 +18438,7 @@
     </row>
     <row r="501" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B501" s="1">
         <v>44865</v>
@@ -18480,7 +18476,7 @@
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B502" s="1">
         <v>44957</v>
@@ -18506,7 +18502,7 @@
     </row>
     <row r="503" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B503" s="1">
         <v>45046</v>
@@ -18532,7 +18528,7 @@
     </row>
     <row r="504" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B504" s="1">
         <v>45138</v>
@@ -18540,7 +18536,7 @@
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B505" s="1">
         <v>45230</v>
@@ -18548,7 +18544,7 @@
     </row>
     <row r="506" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B506" s="1">
         <v>43131</v>
@@ -18556,7 +18552,7 @@
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B507" s="1">
         <v>43220</v>
@@ -18594,7 +18590,7 @@
     </row>
     <row r="508" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B508" s="1">
         <v>43312</v>
@@ -18632,7 +18628,7 @@
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B509" s="1">
         <v>43404</v>
@@ -18670,7 +18666,7 @@
     </row>
     <row r="510" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B510" s="1">
         <v>43496</v>
@@ -18708,7 +18704,7 @@
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B511" s="1">
         <v>43585</v>
@@ -18746,7 +18742,7 @@
     </row>
     <row r="512" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B512" s="1">
         <v>43677</v>
@@ -18784,7 +18780,7 @@
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B513" s="1">
         <v>43769</v>
@@ -18822,7 +18818,7 @@
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B514" s="1">
         <v>43861</v>
@@ -18860,7 +18856,7 @@
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B515" s="1">
         <v>43951</v>
@@ -18898,7 +18894,7 @@
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B516" s="1">
         <v>44043</v>
@@ -18936,7 +18932,7 @@
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B517" s="1">
         <v>44135</v>
@@ -18974,7 +18970,7 @@
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B518" s="1">
         <v>44227</v>
@@ -19012,7 +19008,7 @@
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B519" s="1">
         <v>44316</v>
@@ -19050,7 +19046,7 @@
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B520" s="1">
         <v>44408</v>
@@ -19088,7 +19084,7 @@
     </row>
     <row r="521" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B521" s="1">
         <v>44500</v>
@@ -19123,7 +19119,7 @@
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B522" s="1">
         <v>44592</v>
@@ -19155,7 +19151,7 @@
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B523" s="1">
         <v>44681</v>
@@ -19187,7 +19183,7 @@
     </row>
     <row r="524" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B524" s="1">
         <v>44773</v>
@@ -19219,7 +19215,7 @@
     </row>
     <row r="525" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B525" s="1">
         <v>44865</v>
@@ -19251,7 +19247,7 @@
     </row>
     <row r="526" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B526" s="1">
         <v>44957</v>
@@ -19274,7 +19270,7 @@
     </row>
     <row r="527" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B527" s="1">
         <v>45046</v>
@@ -19297,7 +19293,7 @@
     </row>
     <row r="528" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B528" s="1">
         <v>45138</v>
@@ -19305,7 +19301,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B529" s="1">
         <v>45230</v>
